--- a/Kommunikation S42B V1.0.xlsx
+++ b/Kommunikation S42B V1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sepp\Documents\GitHub\BIGTREETECH-S42B-V1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F279CF02-751A-444D-9620-BD962CAF799C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D67E0F7-D44B-499C-94AE-DE05A5502BAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C3C0F04-4692-475F-BB26-0B33D80CE323}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C3C0F04-4692-475F-BB26-0B33D80CE323}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Format" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
   <si>
     <t>frame header</t>
   </si>
@@ -71,9 +71,6 @@
     <t>09</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>A0</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Calc checksum</t>
   </si>
   <si>
-    <t>00</t>
-  </si>
-  <si>
     <t>Standartwert in Hex</t>
   </si>
   <si>
@@ -183,6 +177,24 @@
   </si>
   <si>
     <t>Errorrate ausgeben</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>0E</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>0F</t>
   </si>
 </sst>
 </file>
@@ -589,7 +601,7 @@
   <dimension ref="A3:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,10 +636,10 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -655,7 +667,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
@@ -664,7 +676,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
@@ -688,7 +700,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -721,7 +733,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -730,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
@@ -754,7 +766,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -763,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
@@ -780,7 +792,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -789,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>8</v>
@@ -806,7 +818,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -815,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>8</v>
@@ -832,7 +844,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -841,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
@@ -858,7 +870,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -867,13 +879,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>11</v>
@@ -884,7 +896,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -893,16 +905,16 @@
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" s="2">
         <v>16</v>
@@ -910,7 +922,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
@@ -919,16 +931,16 @@
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="H14" s="2">
         <v>16</v>
@@ -936,7 +948,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
@@ -945,16 +957,16 @@
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H15" s="2">
         <v>16</v>
@@ -963,7 +975,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -972,16 +984,16 @@
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="2">
         <v>16</v>
@@ -989,25 +1001,59 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="2">
+        <v>16</v>
+      </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="2">
+        <v>16</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
@@ -1050,29 +1096,32 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>DEC2HEX(5,2)</f>
         <v>05</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G22" s="10" t="str">
         <f>DEC2HEX(HEX2DEC(C22)+HEX2DEC(D22)+HEX2DEC(E22)+HEX2DEC(F22),3)</f>
-        <v>0B9</v>
+        <v>20F</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="7" t="str">
+        <f>B17&amp;C22&amp;D22&amp;E22&amp;K24&amp;F22&amp;G22&amp;H17</f>
+        <v>FEFE05B6AAAA20F16</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -1088,10 +1137,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1157,7 +1206,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1172,7 +1221,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1187,7 +1236,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
